--- a/Course Scheduler/Course Scheduler/Copy_of_Fall2020_plan_intermediate_w_Final_Report.xlsx
+++ b/Course Scheduler/Course Scheduler/Copy_of_Fall2020_plan_intermediate_w_Final_Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sanchez\Desktop\Visual Studio\Course Scheduler\Course-Scheduler-Project\Course Scheduler\Course Scheduler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanch\Desktop\Course-Scheduler-Project\Course Scheduler\Course Scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F52543-6863-4D0D-ABD7-26B157CF7AE2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F32BEF-2A4B-445A-AE9B-6044B2BF3191}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="764" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="764" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historic Data - Service+BA+RCBC" sheetId="10" r:id="rId1"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2109" uniqueCount="745">
   <si>
     <t>Baliga</t>
   </si>
@@ -2374,6 +2374,27 @@
   </si>
   <si>
     <t>Orta Cordova</t>
+  </si>
+  <si>
+    <t>04113</t>
+  </si>
+  <si>
+    <t>04440</t>
+  </si>
+  <si>
+    <t>02605</t>
+  </si>
+  <si>
+    <t>04222</t>
+  </si>
+  <si>
+    <t>07340</t>
+  </si>
+  <si>
+    <t>04315</t>
+  </si>
+  <si>
+    <t>04103</t>
   </si>
 </sst>
 </file>
@@ -3161,7 +3182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3745,6 +3766,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5223,22 +5247,22 @@
       <selection pane="bottomRight" activeCell="N3" sqref="N3:O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="10" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" style="10" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="10" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="35.5546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" style="10" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" style="10" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" style="10" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="10" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" style="10" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" style="10" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="15" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" style="17" hidden="1" customWidth="1"/>
-    <col min="9" max="14" width="6.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="53.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="10"/>
+    <col min="8" max="8" width="6.88671875" style="17" hidden="1" customWidth="1"/>
+    <col min="9" max="14" width="6.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="53.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
       <c r="B1" s="16" t="s">
         <v>129</v>
@@ -5281,7 +5305,7 @@
       </c>
       <c r="O1" s="109"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="52" t="s">
         <v>94</v>
       </c>
@@ -5300,7 +5324,7 @@
       <c r="N2" s="83"/>
       <c r="O2" s="109"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
         <v>95</v>
       </c>
@@ -5348,7 +5372,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
         <v>317</v>
       </c>
@@ -5371,7 +5395,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>194</v>
       </c>
@@ -5394,7 +5418,7 @@
       <c r="N5" s="215"/>
       <c r="O5" s="109"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="46" t="s">
         <v>170</v>
       </c>
@@ -5435,7 +5459,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
@@ -5452,7 +5476,7 @@
       <c r="N7" s="69"/>
       <c r="O7" s="109"/>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="52" t="s">
         <v>176</v>
       </c>
@@ -5471,7 +5495,7 @@
       <c r="N8" s="83"/>
       <c r="O8" s="109"/>
     </row>
-    <row r="9" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="57" t="s">
         <v>174</v>
       </c>
@@ -5508,7 +5532,7 @@
       <c r="N9" s="89"/>
       <c r="O9" s="109"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
         <v>96</v>
       </c>
@@ -5556,7 +5580,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="45" t="s">
         <v>311</v>
       </c>
@@ -5579,7 +5603,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="45" t="s">
         <v>97</v>
       </c>
@@ -5627,7 +5651,7 @@
       </c>
       <c r="P12" s="166"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="45" t="s">
         <v>126</v>
       </c>
@@ -5670,7 +5694,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="45" t="s">
         <v>160</v>
       </c>
@@ -5709,7 +5733,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="45" t="s">
         <v>158</v>
       </c>
@@ -5750,7 +5774,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="45" t="s">
         <v>205</v>
       </c>
@@ -5781,7 +5805,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="45" t="s">
         <v>167</v>
       </c>
@@ -5818,7 +5842,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="45" t="s">
         <v>168</v>
       </c>
@@ -5853,7 +5877,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="46" t="s">
         <v>231</v>
       </c>
@@ -5874,7 +5898,7 @@
       <c r="N19" s="51"/>
       <c r="O19" s="109"/>
     </row>
-    <row r="20" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A20" s="57" t="s">
         <v>175</v>
       </c>
@@ -5914,7 +5938,7 @@
       </c>
       <c r="O20" s="109"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="45" t="s">
         <v>159</v>
       </c>
@@ -5951,7 +5975,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="45" t="s">
         <v>164</v>
       </c>
@@ -5984,7 +6008,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="45" t="s">
         <v>169</v>
       </c>
@@ -6005,7 +6029,7 @@
       <c r="N23" s="91"/>
       <c r="O23" s="109"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="156" t="s">
         <v>362</v>
       </c>
@@ -6028,7 +6052,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="45" t="s">
         <v>206</v>
       </c>
@@ -6055,7 +6079,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="45" t="s">
         <v>226</v>
       </c>
@@ -6078,7 +6102,7 @@
       <c r="N26" s="91"/>
       <c r="O26" s="109"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="45" t="s">
         <v>162</v>
       </c>
@@ -6109,7 +6133,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="45" t="s">
         <v>163</v>
       </c>
@@ -6140,7 +6164,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="45" t="s">
         <v>165</v>
       </c>
@@ -6167,7 +6191,7 @@
       <c r="N29" s="91"/>
       <c r="O29" s="109"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="45" t="s">
         <v>166</v>
       </c>
@@ -6194,7 +6218,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="46" t="s">
         <v>320</v>
       </c>
@@ -6217,9 +6241,9 @@
         <v>321</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="157" t="s">
         <v>173</v>
       </c>
@@ -6253,7 +6277,7 @@
       </c>
       <c r="O34" s="109"/>
     </row>
-    <row r="35" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A35" s="114" t="s">
         <v>167</v>
       </c>
@@ -6284,7 +6308,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="45" t="s">
         <v>201</v>
       </c>
@@ -6311,7 +6335,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="70" t="s">
         <v>200</v>
       </c>
@@ -6334,7 +6358,7 @@
       <c r="N37" s="4"/>
       <c r="O37" s="109"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="70" t="s">
         <v>168</v>
       </c>
@@ -6363,7 +6387,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="71"/>
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
@@ -6380,7 +6404,7 @@
       <c r="N39" s="126"/>
       <c r="O39" s="109"/>
     </row>
-    <row r="40" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A40" s="73" t="s">
         <v>207</v>
       </c>
@@ -6407,7 +6431,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="70" t="s">
         <v>208</v>
       </c>
@@ -6440,7 +6464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="70" t="s">
         <v>209</v>
       </c>
@@ -6465,7 +6489,7 @@
       <c r="N42" s="4"/>
       <c r="O42" s="109"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="70" t="s">
         <v>210</v>
       </c>
@@ -6490,7 +6514,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="71" t="s">
         <v>238</v>
       </c>
@@ -6511,7 +6535,7 @@
       <c r="N44" s="6"/>
       <c r="O44" s="109"/>
     </row>
-    <row r="45" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="J45" s="20">
         <f>SUM(J35:J43)</f>
         <v>4</v>
@@ -6547,22 +6571,22 @@
       <selection pane="bottomRight" activeCell="N67" sqref="N67:O67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="10" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" style="10" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="10" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="35.5546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" style="10" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" style="10" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" style="10" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="10" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" style="10" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" style="10" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="15" hidden="1" customWidth="1"/>
-    <col min="8" max="14" width="6.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="56.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="10"/>
+    <col min="8" max="14" width="6.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="56.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7"/>
       <c r="B1" s="16" t="s">
         <v>129</v>
@@ -6604,7 +6628,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
         <v>174</v>
       </c>
@@ -6658,7 +6682,7 @@
       </c>
       <c r="N2" s="60"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="61" t="s">
         <v>98</v>
       </c>
@@ -6705,7 +6729,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="61" t="s">
         <v>99</v>
       </c>
@@ -6755,7 +6779,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="61" t="s">
         <v>100</v>
       </c>
@@ -6802,7 +6826,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="61" t="s">
         <v>101</v>
       </c>
@@ -6849,7 +6873,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="61" t="s">
         <v>109</v>
       </c>
@@ -6896,7 +6920,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="61" t="s">
         <v>106</v>
       </c>
@@ -6943,7 +6967,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="120" t="s">
         <v>107</v>
       </c>
@@ -6984,7 +7008,7 @@
       <c r="N9" s="123"/>
       <c r="O9" s="109"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="120" t="s">
         <v>108</v>
       </c>
@@ -7025,7 +7049,7 @@
       <c r="N10" s="123"/>
       <c r="O10" s="109"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="61" t="s">
         <v>103</v>
       </c>
@@ -7072,7 +7096,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="61" t="s">
         <v>104</v>
       </c>
@@ -7119,7 +7143,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="61" t="s">
         <v>110</v>
       </c>
@@ -7166,7 +7190,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="61" t="s">
         <v>111</v>
       </c>
@@ -7213,7 +7237,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="61" t="s">
         <v>105</v>
       </c>
@@ -7260,7 +7284,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="61" t="s">
         <v>157</v>
       </c>
@@ -7291,7 +7315,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="62" t="s">
         <v>116</v>
       </c>
@@ -7322,7 +7346,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="63" t="s">
         <v>112</v>
       </c>
@@ -7369,7 +7393,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -7403,7 +7427,7 @@
       </c>
       <c r="N19" s="20"/>
     </row>
-    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -7419,7 +7443,7 @@
       <c r="M20" s="20"/>
       <c r="N20" s="20"/>
     </row>
-    <row r="21" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="67" t="s">
         <v>177</v>
       </c>
@@ -7476,7 +7500,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A22" s="66" t="s">
         <v>188</v>
       </c>
@@ -7515,7 +7539,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="61" t="s">
         <v>217</v>
       </c>
@@ -7539,7 +7563,7 @@
       </c>
       <c r="N23" s="30"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="61" t="s">
         <v>114</v>
       </c>
@@ -7563,7 +7587,7 @@
       <c r="M24" s="30"/>
       <c r="N24" s="30"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="61" t="s">
         <v>102</v>
       </c>
@@ -7587,7 +7611,7 @@
       <c r="M25" s="30"/>
       <c r="N25" s="30"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="61" t="s">
         <v>185</v>
       </c>
@@ -7617,7 +7641,7 @@
       </c>
       <c r="N26" s="30"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="61"/>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
@@ -7633,7 +7657,7 @@
       <c r="M27" s="30"/>
       <c r="N27" s="30"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="61" t="s">
         <v>113</v>
       </c>
@@ -7661,7 +7685,7 @@
       </c>
       <c r="N28" s="30"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="61"/>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
@@ -7677,7 +7701,7 @@
       <c r="M29" s="30"/>
       <c r="N29" s="30"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="61" t="s">
         <v>212</v>
       </c>
@@ -7695,7 +7719,7 @@
       <c r="M30" s="30"/>
       <c r="N30" s="30"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="61" t="s">
         <v>213</v>
       </c>
@@ -7715,7 +7739,7 @@
       </c>
       <c r="N31" s="30"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="61" t="s">
         <v>216</v>
       </c>
@@ -7735,7 +7759,7 @@
       <c r="M32" s="30"/>
       <c r="N32" s="30"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="61" t="s">
         <v>219</v>
       </c>
@@ -7755,7 +7779,7 @@
       <c r="M33" s="30"/>
       <c r="N33" s="30"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="61"/>
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
@@ -7771,7 +7795,7 @@
       <c r="M34" s="30"/>
       <c r="N34" s="30"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="61" t="s">
         <v>117</v>
       </c>
@@ -7802,7 +7826,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="61" t="s">
         <v>215</v>
       </c>
@@ -7822,7 +7846,7 @@
       <c r="M36" s="30"/>
       <c r="N36" s="30"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="61" t="s">
         <v>195</v>
       </c>
@@ -7845,7 +7869,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="61" t="s">
         <v>203</v>
       </c>
@@ -7865,7 +7889,7 @@
       <c r="M38" s="30"/>
       <c r="N38" s="30"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="61" t="s">
         <v>202</v>
       </c>
@@ -7885,7 +7909,7 @@
       <c r="M39" s="30"/>
       <c r="N39" s="30"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="61" t="s">
         <v>192</v>
       </c>
@@ -7912,7 +7936,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="61"/>
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
@@ -7928,7 +7952,7 @@
       <c r="M41" s="30"/>
       <c r="N41" s="30"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="61" t="s">
         <v>189</v>
       </c>
@@ -7955,7 +7979,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="61" t="s">
         <v>200</v>
       </c>
@@ -7981,7 +8005,7 @@
       </c>
       <c r="N43" s="30"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="61"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
@@ -7997,7 +8021,7 @@
       <c r="M44" s="30"/>
       <c r="N44" s="30"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="61" t="s">
         <v>233</v>
       </c>
@@ -8023,7 +8047,7 @@
       </c>
       <c r="N45" s="30"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="61" t="s">
         <v>190</v>
       </c>
@@ -8049,7 +8073,7 @@
       </c>
       <c r="N46" s="30"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="61" t="s">
         <v>220</v>
       </c>
@@ -8067,7 +8091,7 @@
       <c r="M47" s="30"/>
       <c r="N47" s="30"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="61" t="s">
         <v>184</v>
       </c>
@@ -8087,7 +8111,7 @@
       <c r="M48" s="30"/>
       <c r="N48" s="30"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="61"/>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
@@ -8103,7 +8127,7 @@
       <c r="M49" s="30"/>
       <c r="N49" s="30"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="61" t="s">
         <v>115</v>
       </c>
@@ -8127,7 +8151,7 @@
       <c r="M50" s="30"/>
       <c r="N50" s="30"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="61" t="s">
         <v>191</v>
       </c>
@@ -8152,7 +8176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="61" t="s">
         <v>187</v>
       </c>
@@ -8191,7 +8215,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="61" t="s">
         <v>221</v>
       </c>
@@ -8215,7 +8239,7 @@
       </c>
       <c r="N53" s="30"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="61" t="s">
         <v>186</v>
       </c>
@@ -8244,7 +8268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="61"/>
       <c r="B55" s="29"/>
       <c r="C55" s="29"/>
@@ -8260,7 +8284,7 @@
       <c r="M55" s="30"/>
       <c r="N55" s="30"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="61" t="s">
         <v>224</v>
       </c>
@@ -8285,7 +8309,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="61" t="s">
         <v>199</v>
       </c>
@@ -8309,7 +8333,7 @@
       <c r="M57" s="30"/>
       <c r="N57" s="30"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="61" t="s">
         <v>222</v>
       </c>
@@ -8329,7 +8353,7 @@
       </c>
       <c r="N58" s="30"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="61" t="s">
         <v>223</v>
       </c>
@@ -8355,7 +8379,7 @@
       <c r="M59" s="30"/>
       <c r="N59" s="30"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="61"/>
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
@@ -8371,7 +8395,7 @@
       <c r="M60" s="30"/>
       <c r="N60" s="30"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="61" t="s">
         <v>198</v>
       </c>
@@ -8395,7 +8419,7 @@
       </c>
       <c r="N61" s="30"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="61" t="s">
         <v>218</v>
       </c>
@@ -8419,7 +8443,7 @@
       </c>
       <c r="N62" s="30"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="61" t="s">
         <v>197</v>
       </c>
@@ -8443,7 +8467,7 @@
       </c>
       <c r="N63" s="31"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="61"/>
       <c r="B64" s="30"/>
       <c r="C64" s="30"/>
@@ -8461,7 +8485,7 @@
       <c r="M64" s="30"/>
       <c r="N64" s="30"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="61" t="s">
         <v>193</v>
       </c>
@@ -8498,7 +8522,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="61"/>
       <c r="B66" s="29"/>
       <c r="C66" s="30"/>
@@ -8514,7 +8538,7 @@
       <c r="M66" s="30"/>
       <c r="N66" s="30"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="61" t="s">
         <v>182</v>
       </c>
@@ -8547,7 +8571,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="61" t="s">
         <v>330</v>
       </c>
@@ -8570,7 +8594,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="63" t="s">
         <v>183</v>
       </c>
@@ -8590,7 +8614,7 @@
       <c r="M69" s="48"/>
       <c r="N69" s="48"/>
     </row>
-    <row r="70" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8608,20 +8632,20 @@
       <selection pane="bottomRight" activeCell="N36" sqref="N36:O36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="10" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" style="10" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="10" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" style="10" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" style="10" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" style="10" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="10" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" style="10" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" style="10" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="15" hidden="1" customWidth="1"/>
-    <col min="8" max="14" width="6.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="10"/>
+    <col min="8" max="14" width="6.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7"/>
       <c r="B1" s="16" t="s">
         <v>129</v>
@@ -8663,7 +8687,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="101" t="s">
         <v>118</v>
       </c>
@@ -8720,7 +8744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
         <v>119</v>
       </c>
@@ -8748,7 +8772,7 @@
       </c>
       <c r="P3" s="194"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
         <v>120</v>
       </c>
@@ -8772,7 +8796,7 @@
       <c r="M4" s="91"/>
       <c r="N4" s="91"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>127</v>
       </c>
@@ -8792,7 +8816,7 @@
       <c r="M5" s="91"/>
       <c r="N5" s="91"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="70" t="s">
         <v>428</v>
       </c>
@@ -8815,7 +8839,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="45" t="s">
         <v>136</v>
       </c>
@@ -8844,7 +8868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
         <v>134</v>
       </c>
@@ -8868,7 +8892,7 @@
       <c r="M8" s="91"/>
       <c r="N8" s="91"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
         <v>135</v>
       </c>
@@ -8897,7 +8921,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
         <v>232</v>
       </c>
@@ -8917,7 +8941,7 @@
       <c r="M10" s="91"/>
       <c r="N10" s="91"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="45" t="s">
         <v>140</v>
       </c>
@@ -8941,7 +8965,7 @@
       <c r="M11" s="91"/>
       <c r="N11" s="91"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="45" t="s">
         <v>132</v>
       </c>
@@ -8965,7 +8989,7 @@
       </c>
       <c r="N12" s="91"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="45" t="s">
         <v>142</v>
       </c>
@@ -8985,7 +9009,7 @@
       <c r="M13" s="91"/>
       <c r="N13" s="91"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="45" t="s">
         <v>153</v>
       </c>
@@ -9010,7 +9034,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="45" t="s">
         <v>152</v>
       </c>
@@ -9030,7 +9054,7 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="45" t="s">
         <v>335</v>
       </c>
@@ -9053,7 +9077,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="45" t="s">
         <v>143</v>
       </c>
@@ -9077,7 +9101,7 @@
       <c r="M17" s="91"/>
       <c r="N17" s="91"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="45" t="s">
         <v>141</v>
       </c>
@@ -9104,7 +9128,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="45" t="s">
         <v>125</v>
       </c>
@@ -9126,7 +9150,7 @@
       <c r="M19" s="91"/>
       <c r="N19" s="91"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="45" t="s">
         <v>121</v>
       </c>
@@ -9150,7 +9174,7 @@
       <c r="M20" s="91"/>
       <c r="N20" s="91"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="45" t="s">
         <v>225</v>
       </c>
@@ -9172,7 +9196,7 @@
       </c>
       <c r="N21" s="91"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="45" t="s">
         <v>150</v>
       </c>
@@ -9197,7 +9221,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="45" t="s">
         <v>139</v>
       </c>
@@ -9219,7 +9243,7 @@
       </c>
       <c r="N23" s="91"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
         <v>151</v>
       </c>
@@ -9241,7 +9265,7 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="45" t="s">
         <v>123</v>
       </c>
@@ -9263,7 +9287,7 @@
       </c>
       <c r="N25" s="91"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="45" t="s">
         <v>202</v>
       </c>
@@ -9289,7 +9313,7 @@
       </c>
       <c r="P26" s="202"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="45" t="s">
         <v>227</v>
       </c>
@@ -9311,7 +9335,7 @@
       <c r="M27" s="91"/>
       <c r="N27" s="91"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="45" t="s">
         <v>137</v>
       </c>
@@ -9335,7 +9359,7 @@
       </c>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="45" t="s">
         <v>178</v>
       </c>
@@ -9358,7 +9382,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="45" t="s">
         <v>195</v>
       </c>
@@ -9382,7 +9406,7 @@
       <c r="M30" s="91"/>
       <c r="N30" s="91"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="45" t="s">
         <v>192</v>
       </c>
@@ -9406,7 +9430,7 @@
       </c>
       <c r="N31" s="91"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="45" t="s">
         <v>236</v>
       </c>
@@ -9426,7 +9450,7 @@
       </c>
       <c r="N32" s="91"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="54" t="s">
         <v>337</v>
       </c>
@@ -9446,7 +9470,7 @@
       </c>
       <c r="N33" s="92"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="54" t="s">
         <v>336</v>
       </c>
@@ -9466,7 +9490,7 @@
       </c>
       <c r="N34" s="92"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="54" t="s">
         <v>331</v>
       </c>
@@ -9490,7 +9514,7 @@
       </c>
       <c r="P35" s="194"/>
     </row>
-    <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="46" t="s">
         <v>133</v>
       </c>
@@ -9525,7 +9549,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H37" s="103"/>
       <c r="I37" s="104"/>
       <c r="J37" s="104"/>
@@ -9534,7 +9558,7 @@
       <c r="M37" s="105"/>
       <c r="N37" s="105"/>
     </row>
-    <row r="38" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A38" s="106" t="s">
         <v>171</v>
       </c>
@@ -9552,7 +9576,7 @@
       <c r="M38" s="98"/>
       <c r="N38" s="98"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="108" t="s">
         <v>178</v>
       </c>
@@ -9572,7 +9596,7 @@
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="108" t="s">
         <v>229</v>
       </c>
@@ -9594,7 +9618,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="108" t="s">
         <v>119</v>
       </c>
@@ -9614,7 +9638,7 @@
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="108" t="s">
         <v>196</v>
       </c>
@@ -9634,7 +9658,7 @@
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="151" t="s">
         <v>120</v>
       </c>
@@ -9654,7 +9678,7 @@
       </c>
       <c r="N43" s="126"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="151" t="s">
         <v>308</v>
       </c>
@@ -9674,7 +9698,7 @@
       </c>
       <c r="N44" s="126"/>
     </row>
-    <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="111" t="s">
         <v>119</v>
       </c>
@@ -9694,7 +9718,7 @@
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
     </row>
-    <row r="46" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A46" s="106" t="s">
         <v>172</v>
       </c>
@@ -9712,7 +9736,7 @@
       <c r="M46" s="98"/>
       <c r="N46" s="98"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="108" t="s">
         <v>179</v>
       </c>
@@ -9732,7 +9756,7 @@
       <c r="M47" s="4"/>
       <c r="N47" s="140"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="108" t="s">
         <v>228</v>
       </c>
@@ -9752,7 +9776,7 @@
       <c r="M48" s="4"/>
       <c r="N48" s="140"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="108" t="s">
         <v>192</v>
       </c>
@@ -9772,7 +9796,7 @@
       </c>
       <c r="N49" s="140"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="111" t="s">
         <v>307</v>
       </c>
@@ -9792,7 +9816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A51" s="101" t="s">
         <v>180</v>
       </c>
@@ -9810,7 +9834,7 @@
       <c r="M51" s="98"/>
       <c r="N51" s="98"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="70" t="s">
         <v>181</v>
       </c>
@@ -9832,7 +9856,7 @@
       </c>
       <c r="N52" s="4"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="70" t="s">
         <v>204</v>
       </c>
@@ -9852,7 +9876,7 @@
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="70" t="s">
         <v>178</v>
       </c>
@@ -9872,7 +9896,7 @@
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
     </row>
-    <row r="55" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="71" t="s">
         <v>260</v>
       </c>
@@ -9892,7 +9916,7 @@
       </c>
       <c r="N55" s="150"/>
     </row>
-    <row r="56" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9907,20 +9931,20 @@
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="135" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" style="135" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="135" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="135" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="74.140625" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" style="135" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="74.109375" customWidth="1"/>
+    <col min="9" max="9" width="20.5546875" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D1" s="28" t="s">
         <v>255</v>
       </c>
@@ -9940,7 +9964,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -9958,7 +9982,7 @@
       <c r="G2" s="172"/>
       <c r="H2" s="173"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -9980,7 +10004,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -9998,7 +10022,7 @@
       <c r="G4" s="162"/>
       <c r="H4" s="163"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -10020,7 +10044,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -10042,7 +10066,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -10064,7 +10088,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -10086,7 +10110,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -10108,7 +10132,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -10136,7 +10160,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -10158,7 +10182,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -10180,7 +10204,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -10202,7 +10226,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -10224,7 +10248,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -10246,7 +10270,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -10274,7 +10298,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -10296,7 +10320,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -10318,7 +10342,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -10340,7 +10364,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -10368,7 +10392,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -10391,7 +10415,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -10419,7 +10443,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -10441,7 +10465,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -10451,7 +10475,7 @@
       <c r="G24" s="136"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -10461,7 +10485,7 @@
       <c r="G25" s="136"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="180" t="s">
         <v>154</v>
@@ -10482,7 +10506,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="182" t="s">
         <v>264</v>
@@ -10503,7 +10527,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="182" t="s">
         <v>84</v>
@@ -10524,7 +10548,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="182" t="s">
         <v>404</v>
@@ -10545,7 +10569,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="182" t="s">
         <v>73</v>
@@ -10566,7 +10590,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="182" t="s">
         <v>52</v>
@@ -10587,7 +10611,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="182" t="s">
         <v>230</v>
@@ -10608,7 +10632,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="182" t="s">
         <v>237</v>
@@ -10629,7 +10653,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="144" t="s">
         <v>60</v>
@@ -10650,7 +10674,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="174" t="s">
         <v>33</v>
@@ -10669,7 +10693,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="182" t="s">
         <v>259</v>
@@ -10690,7 +10714,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="144" t="s">
         <v>270</v>
@@ -10711,7 +10735,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="182" t="s">
         <v>272</v>
@@ -10732,7 +10756,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="182" t="s">
         <v>53</v>
@@ -10753,7 +10777,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="182" t="s">
         <v>299</v>
@@ -10774,7 +10798,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="182" t="s">
         <v>1</v>
@@ -10795,7 +10819,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="195" t="s">
         <v>434</v>
@@ -10816,7 +10840,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -10826,7 +10850,7 @@
       <c r="G43" s="136"/>
       <c r="H43" s="10"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -10836,12 +10860,12 @@
       <c r="G44" s="136"/>
       <c r="H44" s="10"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F45" s="136"/>
       <c r="G45" s="136"/>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" spans="1:9" s="10" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" s="10" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A46" s="21">
         <v>1</v>
       </c>
@@ -10857,7 +10881,7 @@
       <c r="G46" s="136"/>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
         <v>2</v>
       </c>
@@ -10873,7 +10897,7 @@
       <c r="G47" s="136"/>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12">
         <v>3</v>
       </c>
@@ -10889,7 +10913,7 @@
       <c r="G48" s="136"/>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
         <v>4</v>
       </c>
@@ -10905,7 +10929,7 @@
       <c r="G49" s="136"/>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
         <v>5</v>
       </c>
@@ -10921,7 +10945,7 @@
       <c r="G50" s="136"/>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12">
         <v>6</v>
       </c>
@@ -10937,7 +10961,7 @@
       <c r="G51" s="136"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
         <v>7</v>
       </c>
@@ -10953,7 +10977,7 @@
       <c r="G52" s="136"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12">
         <v>8</v>
       </c>
@@ -10969,7 +10993,7 @@
       <c r="G53" s="136"/>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12">
         <v>9</v>
       </c>
@@ -10985,7 +11009,7 @@
       <c r="G54" s="136"/>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12">
         <v>10</v>
       </c>
@@ -11001,7 +11025,7 @@
       <c r="G55" s="136"/>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12">
         <v>11</v>
       </c>
@@ -11017,7 +11041,7 @@
       <c r="G56" s="136"/>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="12">
         <v>12</v>
       </c>
@@ -11033,7 +11057,7 @@
       <c r="G57" s="136"/>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="12">
         <v>13</v>
       </c>
@@ -11049,7 +11073,7 @@
       <c r="G58" s="136"/>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="12">
         <v>14</v>
       </c>
@@ -11065,7 +11089,7 @@
       <c r="G59" s="136"/>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="12">
         <v>15</v>
       </c>
@@ -11081,7 +11105,7 @@
       <c r="G60" s="136"/>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12">
         <v>16</v>
       </c>
@@ -11097,7 +11121,7 @@
       <c r="G61" s="136"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12">
         <v>17</v>
       </c>
@@ -11113,7 +11137,7 @@
       <c r="G62" s="136"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="12">
         <v>18</v>
       </c>
@@ -11129,7 +11153,7 @@
       <c r="G63" s="136"/>
       <c r="I63" s="17"/>
     </row>
-    <row r="64" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="12">
         <v>19</v>
       </c>
@@ -11145,7 +11169,7 @@
       <c r="G64" s="136"/>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="12">
         <v>20</v>
       </c>
@@ -11161,7 +11185,7 @@
       <c r="G65" s="136"/>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="12">
         <v>21</v>
       </c>
@@ -11177,7 +11201,7 @@
       <c r="G66" s="136"/>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="12">
         <v>22</v>
       </c>
@@ -11193,7 +11217,7 @@
       <c r="G67" s="136"/>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="12">
         <v>23</v>
       </c>
@@ -11209,7 +11233,7 @@
       <c r="G68" s="136"/>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="12">
         <v>24</v>
       </c>
@@ -11225,7 +11249,7 @@
       <c r="G69" s="136"/>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="12">
         <v>25</v>
       </c>
@@ -11241,7 +11265,7 @@
       <c r="G70" s="136"/>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="12">
         <v>26</v>
       </c>
@@ -11257,7 +11281,7 @@
       <c r="G71" s="136"/>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="12">
         <v>27</v>
       </c>
@@ -11273,7 +11297,7 @@
       <c r="G72" s="136"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12">
         <v>28</v>
       </c>
@@ -11289,7 +11313,7 @@
       <c r="G73" s="136"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12">
         <v>29</v>
       </c>
@@ -11305,7 +11329,7 @@
       <c r="G74" s="136"/>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="12">
         <v>30</v>
       </c>
@@ -11321,7 +11345,7 @@
       <c r="G75" s="136"/>
       <c r="I75" s="17"/>
     </row>
-    <row r="76" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="12">
         <v>31</v>
       </c>
@@ -11337,7 +11361,7 @@
       <c r="G76" s="136"/>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="12">
         <v>32</v>
       </c>
@@ -11353,7 +11377,7 @@
       <c r="G77" s="136"/>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="12">
         <v>33</v>
       </c>
@@ -11369,7 +11393,7 @@
       <c r="G78" s="136"/>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="12">
         <v>34</v>
       </c>
@@ -11385,7 +11409,7 @@
       <c r="G79" s="136"/>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="12">
         <v>35</v>
       </c>
@@ -11401,7 +11425,7 @@
       <c r="G80" s="136"/>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="13">
         <v>36</v>
       </c>
@@ -11417,8 +11441,8 @@
       <c r="G81" s="136"/>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B84" s="11" t="s">
         <v>128</v>
       </c>
@@ -11429,7 +11453,7 @@
       <c r="G84" s="139"/>
       <c r="H84" s="9"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="12"/>
     </row>
   </sheetData>
@@ -11446,27 +11470,27 @@
       <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" customWidth="1"/>
+    <col min="18" max="18" width="11.44140625" customWidth="1"/>
     <col min="19" max="19" width="13" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" customWidth="1"/>
+    <col min="21" max="21" width="11.44140625" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="239" t="s">
         <v>486</v>
       </c>
@@ -11495,7 +11519,7 @@
       <c r="V1" s="239"/>
       <c r="W1" s="239"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>489</v>
       </c>
@@ -11524,7 +11548,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B4" s="236" t="s">
         <v>273</v>
       </c>
@@ -11580,7 +11604,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="237">
         <v>0.33333333333333331</v>
       </c>
@@ -11609,7 +11633,7 @@
       <c r="V5" s="238"/>
       <c r="W5" s="238"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="237">
         <v>0.39583333333333331</v>
       </c>
@@ -11638,7 +11662,7 @@
       <c r="V6" s="238"/>
       <c r="W6" s="238"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="237">
         <v>0.45833333333333331</v>
       </c>
@@ -11667,7 +11691,7 @@
       <c r="V7" s="238"/>
       <c r="W7" s="238"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="237">
         <v>0.52083333333333337</v>
       </c>
@@ -11696,7 +11720,7 @@
       <c r="V8" s="238"/>
       <c r="W8" s="238"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="237">
         <v>0.58333333333333337</v>
       </c>
@@ -11725,7 +11749,7 @@
       <c r="V9" s="238"/>
       <c r="W9" s="238"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="237">
         <v>0.64583333333333337</v>
       </c>
@@ -11754,7 +11778,7 @@
       <c r="V10" s="238"/>
       <c r="W10" s="238"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="237">
         <v>0.70833333333333337</v>
       </c>
@@ -11783,7 +11807,7 @@
       <c r="V11" s="238"/>
       <c r="W11" s="238"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="237">
         <v>0.77083333333333337</v>
       </c>
@@ -11812,7 +11836,7 @@
       <c r="V12" s="238"/>
       <c r="W12" s="238"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="237">
         <v>0.83333333333333337</v>
       </c>
@@ -11841,7 +11865,7 @@
       <c r="V13" s="238"/>
       <c r="W13" s="238"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="237">
         <v>0.89583333333333337</v>
       </c>
@@ -11870,10 +11894,10 @@
       <c r="V14" s="238"/>
       <c r="W14" s="238"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="236"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="239" t="s">
         <v>494</v>
       </c>
@@ -11902,7 +11926,7 @@
       <c r="V16" s="239"/>
       <c r="W16" s="239"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>489</v>
       </c>
@@ -11931,7 +11955,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B19" s="236" t="s">
         <v>273</v>
       </c>
@@ -11987,7 +12011,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="237">
         <v>0.33333333333333331</v>
       </c>
@@ -12016,7 +12040,7 @@
       <c r="V20" s="238"/>
       <c r="W20" s="238"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="237">
         <v>0.39583333333333331</v>
       </c>
@@ -12045,7 +12069,7 @@
       <c r="V21" s="238"/>
       <c r="W21" s="238"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="237">
         <v>0.45833333333333331</v>
       </c>
@@ -12074,7 +12098,7 @@
       <c r="V22" s="238"/>
       <c r="W22" s="238"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="237">
         <v>0.52083333333333337</v>
       </c>
@@ -12103,7 +12127,7 @@
       <c r="V23" s="238"/>
       <c r="W23" s="238"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="237">
         <v>0.58333333333333337</v>
       </c>
@@ -12132,7 +12156,7 @@
       <c r="V24" s="238"/>
       <c r="W24" s="238"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="237">
         <v>0.64583333333333337</v>
       </c>
@@ -12161,7 +12185,7 @@
       <c r="V25" s="238"/>
       <c r="W25" s="238"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="237">
         <v>0.70833333333333337</v>
       </c>
@@ -12190,7 +12214,7 @@
       <c r="V26" s="238"/>
       <c r="W26" s="238"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="237">
         <v>0.77083333333333337</v>
       </c>
@@ -12219,7 +12243,7 @@
       <c r="V27" s="238"/>
       <c r="W27" s="238"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="237">
         <v>0.83333333333333337</v>
       </c>
@@ -12248,7 +12272,7 @@
       <c r="V28" s="238"/>
       <c r="W28" s="238"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="237">
         <v>0.89583333333333337</v>
       </c>
@@ -12277,7 +12301,7 @@
       <c r="V29" s="238"/>
       <c r="W29" s="238"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="239" t="s">
         <v>498</v>
       </c>
@@ -12306,7 +12330,7 @@
       <c r="V31" s="239"/>
       <c r="W31" s="239"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>489</v>
       </c>
@@ -12335,7 +12359,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B34" s="236" t="s">
         <v>273</v>
       </c>
@@ -12391,7 +12415,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="237">
         <v>0.33333333333333331</v>
       </c>
@@ -12420,7 +12444,7 @@
       <c r="V35" s="238"/>
       <c r="W35" s="238"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="237">
         <v>0.39583333333333331</v>
       </c>
@@ -12455,7 +12479,7 @@
       <c r="V36" s="238"/>
       <c r="W36" s="238"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="237">
         <v>0.45833333333333331</v>
       </c>
@@ -12484,7 +12508,7 @@
       <c r="V37" s="238"/>
       <c r="W37" s="238"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="237">
         <v>0.52083333333333337</v>
       </c>
@@ -12513,7 +12537,7 @@
       <c r="V38" s="238"/>
       <c r="W38" s="238"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="237">
         <v>0.58333333333333337</v>
       </c>
@@ -12542,7 +12566,7 @@
       <c r="V39" s="238"/>
       <c r="W39" s="238"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="237">
         <v>0.64583333333333337</v>
       </c>
@@ -12571,7 +12595,7 @@
       <c r="V40" s="238"/>
       <c r="W40" s="238"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="237">
         <v>0.70833333333333337</v>
       </c>
@@ -12600,7 +12624,7 @@
       <c r="V41" s="238"/>
       <c r="W41" s="238"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="237">
         <v>0.77083333333333337</v>
       </c>
@@ -12629,7 +12653,7 @@
       <c r="V42" s="238"/>
       <c r="W42" s="238"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="237">
         <v>0.83333333333333337</v>
       </c>
@@ -12658,7 +12682,7 @@
       <c r="V43" s="238"/>
       <c r="W43" s="238"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="237">
         <v>0.89583333333333337</v>
       </c>
@@ -12687,7 +12711,7 @@
       <c r="V44" s="238"/>
       <c r="W44" s="238"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="239" t="s">
         <v>501</v>
       </c>
@@ -12707,7 +12731,7 @@
       <c r="N46" s="239"/>
       <c r="O46" s="239"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>489</v>
       </c>
@@ -12727,7 +12751,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B49" s="236" t="s">
         <v>273</v>
       </c>
@@ -12765,7 +12789,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="237">
         <v>0.33333333333333331</v>
       </c>
@@ -12785,7 +12809,7 @@
       <c r="N50" s="238"/>
       <c r="O50" s="238"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="237">
         <v>0.39583333333333331</v>
       </c>
@@ -12805,7 +12829,7 @@
       <c r="N51" s="238"/>
       <c r="O51" s="238"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="237">
         <v>0.45833333333333331</v>
       </c>
@@ -12825,7 +12849,7 @@
       <c r="N52" s="238"/>
       <c r="O52" s="238"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="237">
         <v>0.52083333333333337</v>
       </c>
@@ -12845,7 +12869,7 @@
       <c r="N53" s="238"/>
       <c r="O53" s="238"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="237">
         <v>0.58333333333333337</v>
       </c>
@@ -12865,7 +12889,7 @@
       <c r="N54" s="238"/>
       <c r="O54" s="238"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="237">
         <v>0.64583333333333337</v>
       </c>
@@ -12885,7 +12909,7 @@
       <c r="N55" s="238"/>
       <c r="O55" s="238"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="237">
         <v>0.70833333333333337</v>
       </c>
@@ -12905,7 +12929,7 @@
       <c r="N56" s="238"/>
       <c r="O56" s="238"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="237">
         <v>0.77083333333333337</v>
       </c>
@@ -12925,7 +12949,7 @@
       <c r="N57" s="238"/>
       <c r="O57" s="238"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="237">
         <v>0.83333333333333337</v>
       </c>
@@ -12945,7 +12969,7 @@
       <c r="N58" s="238"/>
       <c r="O58" s="238"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="237">
         <v>0.89583333333333337</v>
       </c>
@@ -12967,17 +12991,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="I31:O31"/>
-    <mergeCell ref="Q31:W31"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="I46:O46"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="I1:O1"/>
     <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="I16:O16"/>
     <mergeCell ref="Q16:W16"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="I31:O31"/>
+    <mergeCell ref="Q31:W31"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="I46:O46"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:W59">
     <cfRule type="cellIs" dxfId="140" priority="140" operator="equal">
@@ -13462,37 +13486,37 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:R70"/>
+  <dimension ref="A1:R127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" style="240" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" style="28" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.44140625" style="28" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7" style="28" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8" style="28" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="28"/>
+    <col min="14" max="14" width="6.44140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.44140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.109375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="56.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="228" t="s">
         <v>468</v>
       </c>
@@ -13548,12 +13572,12 @@
         <v>484</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B2" s="28">
-        <v>4113</v>
+      <c r="B2" s="240" t="s">
+        <v>738</v>
       </c>
       <c r="C2" s="28">
         <v>1</v>
@@ -13601,12 +13625,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B3" s="28">
-        <v>4113</v>
+      <c r="B3" s="240" t="s">
+        <v>738</v>
       </c>
       <c r="C3" s="28">
         <v>1</v>
@@ -13654,12 +13678,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B4" s="28">
-        <v>4113</v>
+      <c r="B4" s="240" t="s">
+        <v>738</v>
       </c>
       <c r="C4" s="28">
         <v>1</v>
@@ -13707,12 +13731,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B5" s="28">
-        <v>4113</v>
+      <c r="B5" s="240" t="s">
+        <v>738</v>
       </c>
       <c r="C5" s="28">
         <v>1</v>
@@ -13760,12 +13784,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B6" s="28">
-        <v>4113</v>
+      <c r="B6" s="240" t="s">
+        <v>738</v>
       </c>
       <c r="C6" s="28">
         <v>1</v>
@@ -13813,12 +13837,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B7" s="28">
-        <v>4113</v>
+      <c r="B7" s="240" t="s">
+        <v>738</v>
       </c>
       <c r="C7" s="28">
         <v>2</v>
@@ -13866,12 +13890,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B8" s="28">
-        <v>4113</v>
+      <c r="B8" s="240" t="s">
+        <v>738</v>
       </c>
       <c r="C8" s="28">
         <v>2</v>
@@ -13919,12 +13943,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B9" s="28">
-        <v>4113</v>
+      <c r="B9" s="240" t="s">
+        <v>738</v>
       </c>
       <c r="C9" s="28">
         <v>2</v>
@@ -13972,12 +13996,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B10" s="28">
-        <v>4113</v>
+      <c r="B10" s="240" t="s">
+        <v>738</v>
       </c>
       <c r="C10" s="28">
         <v>2</v>
@@ -14025,12 +14049,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B11" s="28">
-        <v>4113</v>
+      <c r="B11" s="240" t="s">
+        <v>738</v>
       </c>
       <c r="C11" s="28">
         <v>2</v>
@@ -14078,12 +14102,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B12" s="28">
-        <v>4113</v>
+      <c r="B12" s="240" t="s">
+        <v>738</v>
       </c>
       <c r="C12" s="28">
         <v>2</v>
@@ -14131,12 +14155,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B13" s="28">
-        <v>4113</v>
+      <c r="B13" s="240" t="s">
+        <v>738</v>
       </c>
       <c r="C13" s="28">
         <v>2</v>
@@ -14184,12 +14208,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B14" s="28">
-        <v>4113</v>
+      <c r="B14" s="240" t="s">
+        <v>738</v>
       </c>
       <c r="C14" s="28">
         <v>3</v>
@@ -14234,12 +14258,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B15" s="28">
-        <v>4113</v>
+      <c r="B15" s="240" t="s">
+        <v>738</v>
       </c>
       <c r="C15" s="28">
         <v>3</v>
@@ -14284,12 +14308,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B16" s="28">
-        <v>4113</v>
+      <c r="B16" s="240" t="s">
+        <v>738</v>
       </c>
       <c r="C16" s="28">
         <v>3</v>
@@ -14334,12 +14358,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B17" s="28">
-        <v>4113</v>
+      <c r="B17" s="240" t="s">
+        <v>738</v>
       </c>
       <c r="C17" s="28">
         <v>3</v>
@@ -14384,12 +14408,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B18" s="28">
-        <v>4113</v>
+      <c r="B18" s="240" t="s">
+        <v>738</v>
       </c>
       <c r="C18" s="28">
         <v>3</v>
@@ -14437,12 +14461,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B19" s="28">
-        <v>4113</v>
+      <c r="B19" s="240" t="s">
+        <v>738</v>
       </c>
       <c r="C19" s="28">
         <v>4</v>
@@ -14487,12 +14511,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B20" s="28">
-        <v>4113</v>
+      <c r="B20" s="240" t="s">
+        <v>738</v>
       </c>
       <c r="C20" s="28">
         <v>4</v>
@@ -14537,12 +14561,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B21" s="28">
-        <v>4113</v>
+      <c r="B21" s="240" t="s">
+        <v>738</v>
       </c>
       <c r="C21" s="28">
         <v>4</v>
@@ -14587,12 +14611,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B22" s="28">
-        <v>4113</v>
+      <c r="B22" s="240" t="s">
+        <v>738</v>
       </c>
       <c r="C22" s="28">
         <v>4</v>
@@ -14640,12 +14664,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B23" s="28">
-        <v>4113</v>
+      <c r="B23" s="240" t="s">
+        <v>738</v>
       </c>
       <c r="C23" s="28">
         <v>4</v>
@@ -14693,12 +14717,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B24" s="28">
-        <v>4113</v>
+      <c r="B24" s="240" t="s">
+        <v>738</v>
       </c>
       <c r="C24" s="28">
         <v>5</v>
@@ -14746,12 +14770,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B25" s="28">
-        <v>4113</v>
+      <c r="B25" s="240" t="s">
+        <v>738</v>
       </c>
       <c r="C25" s="28">
         <v>5</v>
@@ -14799,12 +14823,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B26" s="28">
-        <v>4113</v>
+      <c r="B26" s="240" t="s">
+        <v>738</v>
       </c>
       <c r="C26" s="28">
         <v>5</v>
@@ -14852,12 +14876,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B27" s="28">
-        <v>4113</v>
+      <c r="B27" s="240" t="s">
+        <v>738</v>
       </c>
       <c r="C27" s="28">
         <v>5</v>
@@ -14905,12 +14929,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B28" s="28">
-        <v>4113</v>
+      <c r="B28" s="240" t="s">
+        <v>738</v>
       </c>
       <c r="C28" s="28">
         <v>6</v>
@@ -14958,12 +14982,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B29" s="28">
-        <v>4113</v>
+      <c r="B29" s="240" t="s">
+        <v>738</v>
       </c>
       <c r="C29" s="28">
         <v>6</v>
@@ -15011,12 +15035,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B30" s="28">
-        <v>4113</v>
+      <c r="B30" s="240" t="s">
+        <v>738</v>
       </c>
       <c r="C30" s="28">
         <v>6</v>
@@ -15064,12 +15088,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B31" s="28">
-        <v>4113</v>
+      <c r="B31" s="240" t="s">
+        <v>738</v>
       </c>
       <c r="C31" s="28">
         <v>6</v>
@@ -15117,12 +15141,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B32" s="28">
-        <v>7210</v>
+      <c r="B32" s="240" t="s">
+        <v>287</v>
       </c>
       <c r="C32" s="28">
         <v>3</v>
@@ -15167,12 +15191,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B33" s="28">
-        <v>7210</v>
+      <c r="B33" s="240" t="s">
+        <v>287</v>
       </c>
       <c r="C33" s="28">
         <v>3</v>
@@ -15217,12 +15241,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B34" s="28">
-        <v>4440</v>
+      <c r="B34" s="240" t="s">
+        <v>739</v>
       </c>
       <c r="C34" s="28">
         <v>1</v>
@@ -15270,12 +15294,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B35" s="28">
-        <v>4440</v>
+      <c r="B35" s="240" t="s">
+        <v>739</v>
       </c>
       <c r="C35" s="28">
         <v>1</v>
@@ -15323,12 +15347,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B36" s="28">
-        <v>2605</v>
+      <c r="B36" s="240" t="s">
+        <v>740</v>
       </c>
       <c r="C36" s="28">
         <v>1</v>
@@ -15376,12 +15400,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B37" s="28">
-        <v>2605</v>
+      <c r="B37" s="240" t="s">
+        <v>740</v>
       </c>
       <c r="C37" s="28">
         <v>1</v>
@@ -15429,12 +15453,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="B38" s="28">
-        <v>1266</v>
+      <c r="B38" s="240" t="s">
+        <v>305</v>
       </c>
       <c r="C38" s="28">
         <v>4</v>
@@ -15479,12 +15503,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="B39" s="28">
-        <v>1266</v>
+      <c r="B39" s="240" t="s">
+        <v>305</v>
       </c>
       <c r="C39" s="28">
         <v>4</v>
@@ -15529,12 +15553,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="B40" s="28">
-        <v>1266</v>
+      <c r="B40" s="240" t="s">
+        <v>305</v>
       </c>
       <c r="C40" s="28">
         <v>4</v>
@@ -15579,12 +15603,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="B41" s="28">
-        <v>1266</v>
+      <c r="B41" s="240" t="s">
+        <v>305</v>
       </c>
       <c r="C41" s="28">
         <v>4</v>
@@ -15629,12 +15653,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B42" s="28">
-        <v>4222</v>
+      <c r="B42" s="240" t="s">
+        <v>741</v>
       </c>
       <c r="C42" s="28">
         <v>3</v>
@@ -15679,12 +15703,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B43" s="28">
-        <v>4222</v>
+      <c r="B43" s="240" t="s">
+        <v>741</v>
       </c>
       <c r="C43" s="28">
         <v>3</v>
@@ -15729,12 +15753,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B44" s="28">
-        <v>4222</v>
+      <c r="B44" s="240" t="s">
+        <v>741</v>
       </c>
       <c r="C44" s="28">
         <v>3</v>
@@ -15779,12 +15803,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B45" s="28">
-        <v>4222</v>
+      <c r="B45" s="240" t="s">
+        <v>741</v>
       </c>
       <c r="C45" s="28">
         <v>3</v>
@@ -15829,12 +15853,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B46" s="28">
-        <v>4222</v>
+      <c r="B46" s="240" t="s">
+        <v>741</v>
       </c>
       <c r="C46" s="28">
         <v>4</v>
@@ -15879,12 +15903,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B47" s="28">
-        <v>4222</v>
+      <c r="B47" s="240" t="s">
+        <v>741</v>
       </c>
       <c r="C47" s="28">
         <v>4</v>
@@ -15929,12 +15953,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B48" s="28">
-        <v>4222</v>
+      <c r="B48" s="240" t="s">
+        <v>741</v>
       </c>
       <c r="C48" s="28">
         <v>4</v>
@@ -15979,12 +16003,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B49" s="28">
-        <v>4222</v>
+      <c r="B49" s="240" t="s">
+        <v>741</v>
       </c>
       <c r="C49" s="28">
         <v>4</v>
@@ -16029,12 +16053,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B50" s="28">
-        <v>7340</v>
+      <c r="B50" s="240" t="s">
+        <v>742</v>
       </c>
       <c r="C50" s="28">
         <v>1</v>
@@ -16082,12 +16106,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B51" s="28">
-        <v>7340</v>
+      <c r="B51" s="240" t="s">
+        <v>742</v>
       </c>
       <c r="C51" s="28">
         <v>1</v>
@@ -16135,12 +16159,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B52" s="28">
-        <v>4315</v>
+      <c r="B52" s="240" t="s">
+        <v>743</v>
       </c>
       <c r="C52" s="28">
         <v>1</v>
@@ -16185,12 +16209,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B53" s="28">
-        <v>4315</v>
+      <c r="B53" s="240" t="s">
+        <v>743</v>
       </c>
       <c r="C53" s="28">
         <v>1</v>
@@ -16235,12 +16259,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B54" s="28">
-        <v>4315</v>
+      <c r="B54" s="240" t="s">
+        <v>743</v>
       </c>
       <c r="C54" s="28">
         <v>2</v>
@@ -16285,12 +16309,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B55" s="28">
-        <v>4315</v>
+      <c r="B55" s="240" t="s">
+        <v>743</v>
       </c>
       <c r="C55" s="28">
         <v>2</v>
@@ -16335,12 +16359,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B56" s="28">
-        <v>7210</v>
+      <c r="B56" s="240" t="s">
+        <v>287</v>
       </c>
       <c r="C56" s="28">
         <v>4</v>
@@ -16385,12 +16409,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B57" s="28">
-        <v>7210</v>
+      <c r="B57" s="240" t="s">
+        <v>287</v>
       </c>
       <c r="C57" s="28">
         <v>4</v>
@@ -16435,12 +16459,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B58" s="28">
-        <v>7210</v>
+      <c r="B58" s="240" t="s">
+        <v>287</v>
       </c>
       <c r="C58" s="28">
         <v>4</v>
@@ -16488,12 +16512,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B59" s="28">
-        <v>4315</v>
+      <c r="B59" s="240" t="s">
+        <v>743</v>
       </c>
       <c r="C59" s="28">
         <v>3</v>
@@ -16538,12 +16562,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B60" s="28">
-        <v>4315</v>
+      <c r="B60" s="240" t="s">
+        <v>743</v>
       </c>
       <c r="C60" s="28">
         <v>3</v>
@@ -16588,12 +16612,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="B61" s="28">
-        <v>1266</v>
+      <c r="B61" s="240" t="s">
+        <v>305</v>
       </c>
       <c r="C61" s="28">
         <v>8</v>
@@ -16638,12 +16662,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="B62" s="28">
-        <v>1266</v>
+      <c r="B62" s="240" t="s">
+        <v>305</v>
       </c>
       <c r="C62" s="28">
         <v>8</v>
@@ -16688,12 +16712,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B63" s="28">
-        <v>4103</v>
+      <c r="B63" s="240" t="s">
+        <v>744</v>
       </c>
       <c r="C63" s="28">
         <v>1</v>
@@ -16738,12 +16762,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B64" s="28">
-        <v>4103</v>
+      <c r="B64" s="240" t="s">
+        <v>744</v>
       </c>
       <c r="C64" s="28">
         <v>1</v>
@@ -16788,12 +16812,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B65" s="28">
-        <v>4103</v>
+      <c r="B65" s="240" t="s">
+        <v>744</v>
       </c>
       <c r="C65" s="28">
         <v>2</v>
@@ -16838,12 +16862,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B66" s="28">
-        <v>4103</v>
+      <c r="B66" s="240" t="s">
+        <v>744</v>
       </c>
       <c r="C66" s="28">
         <v>2</v>
@@ -16888,12 +16912,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="B67" s="28">
-        <v>1266</v>
+      <c r="B67" s="240" t="s">
+        <v>305</v>
       </c>
       <c r="C67" s="28">
         <v>7</v>
@@ -16938,12 +16962,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="B68" s="28">
-        <v>1266</v>
+      <c r="B68" s="240" t="s">
+        <v>305</v>
       </c>
       <c r="C68" s="28">
         <v>7</v>
@@ -16988,11 +17012,11 @@
         <v>714</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B69" s="28">
+      <c r="B69" s="240">
         <v>10430</v>
       </c>
       <c r="C69" s="28">
@@ -17038,12 +17062,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B70" s="28">
-        <v>1104</v>
+      <c r="B70" s="240" t="s">
+        <v>464</v>
       </c>
       <c r="C70" s="28">
         <v>21</v>
@@ -17087,6 +17111,177 @@
       <c r="Q70" s="28" t="s">
         <v>714</v>
       </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B71" s="28"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B72" s="28"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B73" s="28"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B74" s="28"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B75" s="28"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B76" s="28"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B77" s="28"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B78" s="28"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B79" s="28"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B80" s="28"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="28"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" s="28"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="28"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="28"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" s="28"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" s="28"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" s="28"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88" s="28"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89" s="28"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90" s="28"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91" s="28"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92" s="28"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93" s="28"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B94" s="28"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" s="28"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96" s="28"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" s="28"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" s="28"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" s="28"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" s="28"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" s="28"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" s="28"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103" s="28"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104" s="28"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105" s="28"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" s="28"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107" s="28"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108" s="28"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109" s="28"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B110" s="28"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111" s="28"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112" s="28"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" s="28"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" s="28"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115" s="28"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116" s="28"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117" s="28"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118" s="28"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119" s="28"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B120" s="28"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B121" s="28"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B122" s="28"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123" s="28"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B124" s="28"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B125" s="28"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B126" s="28"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B127" s="28"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:R1">
@@ -17095,7 +17290,11 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B2:B5" numberStoredAsText="1"/>
+  </ignoredErrors>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -17107,19 +17306,19 @@
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.28515625" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="28" customWidth="1"/>
-    <col min="5" max="5" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="145" t="s">
         <v>277</v>
       </c>
@@ -17142,7 +17341,7 @@
       </c>
       <c r="J3" s="145"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="145" t="s">
         <v>277</v>
       </c>
@@ -17165,7 +17364,7 @@
       </c>
       <c r="J4" s="145"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="220" t="s">
         <v>277</v>
       </c>
@@ -17190,7 +17389,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="220" t="s">
         <v>277</v>
       </c>
@@ -17215,7 +17414,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="220" t="s">
         <v>277</v>
       </c>
@@ -17240,7 +17439,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="220" t="s">
         <v>277</v>
       </c>
@@ -17268,7 +17467,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="142" t="s">
         <v>277</v>
       </c>
@@ -17291,7 +17490,7 @@
       </c>
       <c r="J9" s="142"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="142" t="s">
         <v>277</v>
       </c>
@@ -17312,7 +17511,7 @@
       </c>
       <c r="J10" s="142"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="142" t="s">
         <v>277</v>
       </c>
@@ -17333,7 +17532,7 @@
       </c>
       <c r="J11" s="142"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="142" t="s">
         <v>277</v>
       </c>
@@ -17354,7 +17553,7 @@
       </c>
       <c r="J12" s="142"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="145" t="s">
         <v>277</v>
       </c>
@@ -17375,7 +17574,7 @@
       </c>
       <c r="J13" s="145"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="145" t="s">
         <v>277</v>
       </c>
@@ -17396,7 +17595,7 @@
       </c>
       <c r="J14" s="145"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="145" t="s">
         <v>277</v>
       </c>
@@ -17417,7 +17616,7 @@
       </c>
       <c r="J15" s="145"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="145" t="s">
         <v>277</v>
       </c>
@@ -17440,7 +17639,7 @@
       </c>
       <c r="J16" s="145"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="145" t="s">
         <v>277</v>
       </c>
@@ -17467,7 +17666,7 @@
       </c>
       <c r="J17" s="145"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="145" t="s">
         <v>277</v>
       </c>
@@ -17494,7 +17693,7 @@
       </c>
       <c r="J18" s="145"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="145" t="s">
         <v>277</v>
       </c>
@@ -17521,7 +17720,7 @@
       </c>
       <c r="J19" s="145"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="145" t="s">
         <v>277</v>
       </c>
@@ -17548,7 +17747,7 @@
       </c>
       <c r="J20" s="145"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="145" t="s">
         <v>277</v>
       </c>
@@ -17571,7 +17770,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="145" t="s">
         <v>277</v>
       </c>
@@ -17594,7 +17793,7 @@
       </c>
       <c r="J22" s="145"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="145" t="s">
         <v>277</v>
       </c>
@@ -17617,7 +17816,7 @@
       </c>
       <c r="J23" s="145"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="145" t="s">
         <v>277</v>
       </c>
@@ -17640,7 +17839,7 @@
       </c>
       <c r="J24" s="145"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="145" t="s">
         <v>277</v>
       </c>
@@ -17665,7 +17864,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="145" t="s">
         <v>281</v>
       </c>
@@ -17688,7 +17887,7 @@
       </c>
       <c r="J26" s="145"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="145" t="s">
         <v>281</v>
       </c>
@@ -17711,7 +17910,7 @@
       </c>
       <c r="J27" s="145"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="145" t="s">
         <v>281</v>
       </c>
@@ -17734,7 +17933,7 @@
       </c>
       <c r="J28" s="145"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="145" t="s">
         <v>281</v>
       </c>
@@ -17757,7 +17956,7 @@
       </c>
       <c r="J29" s="145"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="145" t="s">
         <v>281</v>
       </c>
@@ -17780,7 +17979,7 @@
       </c>
       <c r="J30" s="145"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="145" t="s">
         <v>277</v>
       </c>
@@ -17807,7 +18006,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="145" t="s">
         <v>277</v>
       </c>
@@ -17834,7 +18033,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="145" t="s">
         <v>277</v>
       </c>
@@ -17861,7 +18060,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="145" t="s">
         <v>277</v>
       </c>
@@ -17888,7 +18087,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="145" t="s">
         <v>277</v>
       </c>
@@ -17915,7 +18114,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="145" t="s">
         <v>277</v>
       </c>
@@ -17942,7 +18141,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="145" t="s">
         <v>277</v>
       </c>
@@ -17969,7 +18168,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="145" t="s">
         <v>277</v>
       </c>
@@ -17994,7 +18193,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="145" t="s">
         <v>277</v>
       </c>
@@ -18019,7 +18218,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="145" t="s">
         <v>281</v>
       </c>
@@ -18042,7 +18241,7 @@
       </c>
       <c r="J43" s="145"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="145" t="s">
         <v>277</v>
       </c>
@@ -18065,7 +18264,7 @@
       </c>
       <c r="J44" s="145"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="145" t="s">
         <v>277</v>
       </c>
@@ -18088,7 +18287,7 @@
       </c>
       <c r="J45" s="145"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>277</v>
       </c>
@@ -18108,7 +18307,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B49" s="145" t="s">
         <v>277</v>
       </c>
@@ -18146,13 +18345,13 @@
       <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>104</v>
       </c>
@@ -18175,7 +18374,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>110</v>
       </c>
@@ -18198,7 +18397,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>119</v>
       </c>
@@ -18221,7 +18420,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>15</v>
       </c>
@@ -18244,7 +18443,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>56</v>
       </c>
@@ -18267,7 +18466,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>75</v>
       </c>
@@ -18290,7 +18489,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>55</v>
       </c>
@@ -18313,7 +18512,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>112</v>
       </c>
@@ -18336,7 +18535,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>111</v>
       </c>
@@ -18359,7 +18558,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>108</v>
       </c>
@@ -18382,7 +18581,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>20</v>
       </c>
@@ -18405,7 +18604,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>17</v>
       </c>
@@ -18428,7 +18627,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>52</v>
       </c>
@@ -18451,7 +18650,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>54</v>
       </c>
@@ -18474,7 +18673,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>16</v>
       </c>
@@ -18497,7 +18696,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>19</v>
       </c>
@@ -18520,7 +18719,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>35</v>
       </c>
@@ -18543,7 +18742,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>67</v>
       </c>
@@ -18566,7 +18765,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>37</v>
       </c>
@@ -18589,7 +18788,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>137</v>
       </c>
@@ -18612,7 +18811,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>36</v>
       </c>
@@ -18635,7 +18834,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>77</v>
       </c>
@@ -18658,7 +18857,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>14</v>
       </c>
@@ -18681,7 +18880,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>120</v>
       </c>
@@ -18704,7 +18903,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>93</v>
       </c>
@@ -18727,7 +18926,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>115</v>
       </c>
@@ -18750,7 +18949,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>95</v>
       </c>
@@ -18773,7 +18972,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>117</v>
       </c>
@@ -18796,7 +18995,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>101</v>
       </c>
@@ -18819,7 +19018,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>114</v>
       </c>
@@ -18842,7 +19041,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>76</v>
       </c>
@@ -18865,7 +19064,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>113</v>
       </c>
@@ -18888,7 +19087,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>58</v>
       </c>
@@ -18911,7 +19110,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>18</v>
       </c>
@@ -18934,7 +19133,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>53</v>
       </c>
@@ -18957,7 +19156,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>130</v>
       </c>
@@ -18980,7 +19179,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>26</v>
       </c>
@@ -19003,7 +19202,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>109</v>
       </c>
@@ -19026,7 +19225,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>51</v>
       </c>
@@ -19049,7 +19248,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>103</v>
       </c>
@@ -19072,7 +19271,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>57</v>
       </c>
@@ -19095,7 +19294,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>118</v>
       </c>
@@ -19118,7 +19317,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>102</v>
       </c>
@@ -19141,7 +19340,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>78</v>
       </c>
@@ -19164,7 +19363,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>59</v>
       </c>
@@ -19187,7 +19386,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>121</v>
       </c>
@@ -19210,7 +19409,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>116</v>
       </c>
@@ -19233,7 +19432,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>50</v>
       </c>
@@ -19256,7 +19455,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>74</v>
       </c>
@@ -19279,7 +19478,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>29</v>
       </c>
@@ -19302,7 +19501,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>32</v>
       </c>
@@ -19325,7 +19524,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>134</v>
       </c>
@@ -19348,7 +19547,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>6</v>
       </c>
@@ -19371,7 +19570,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>136</v>
       </c>
@@ -19394,7 +19593,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>72</v>
       </c>
@@ -19417,7 +19616,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>8</v>
       </c>
@@ -19440,7 +19639,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>64</v>
       </c>
@@ -19463,7 +19662,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>85</v>
       </c>
@@ -19486,7 +19685,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>80</v>
       </c>
@@ -19509,7 +19708,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>33</v>
       </c>
@@ -19532,7 +19731,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>44</v>
       </c>
@@ -19555,7 +19754,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>46</v>
       </c>
@@ -19578,7 +19777,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>60</v>
       </c>
@@ -19601,7 +19800,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>138</v>
       </c>
@@ -19624,7 +19823,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>139</v>
       </c>
@@ -19647,7 +19846,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>97</v>
       </c>
@@ -19670,7 +19869,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>133</v>
       </c>
@@ -19693,7 +19892,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>40</v>
       </c>
@@ -19716,7 +19915,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>25</v>
       </c>
@@ -19739,7 +19938,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>125</v>
       </c>
@@ -19762,7 +19961,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2</v>
       </c>
@@ -19785,7 +19984,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>21</v>
       </c>
@@ -19808,7 +20007,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>86</v>
       </c>
@@ -19831,7 +20030,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -19854,7 +20053,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>84</v>
       </c>
@@ -19877,7 +20076,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>66</v>
       </c>
@@ -19900,7 +20099,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>48</v>
       </c>
@@ -19923,7 +20122,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>47</v>
       </c>
@@ -19946,7 +20145,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>34</v>
       </c>
@@ -19969,7 +20168,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>62</v>
       </c>
@@ -19992,7 +20191,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>63</v>
       </c>
@@ -20015,7 +20214,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>42</v>
       </c>
@@ -20038,7 +20237,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>27</v>
       </c>
@@ -20061,7 +20260,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>71</v>
       </c>
@@ -20084,7 +20283,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>124</v>
       </c>
@@ -20107,7 +20306,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>79</v>
       </c>
@@ -20130,7 +20329,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>122</v>
       </c>
@@ -20153,7 +20352,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>94</v>
       </c>
@@ -20176,7 +20375,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>126</v>
       </c>
@@ -20199,7 +20398,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>90</v>
       </c>
@@ -20222,7 +20421,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>99</v>
       </c>
@@ -20245,7 +20444,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -20268,7 +20467,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>7</v>
       </c>
@@ -20291,7 +20490,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>88</v>
       </c>
@@ -20314,7 +20513,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>128</v>
       </c>
@@ -20337,7 +20536,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>135</v>
       </c>
@@ -20360,7 +20559,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>9</v>
       </c>
@@ -20383,7 +20582,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>65</v>
       </c>
@@ -20406,7 +20605,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>89</v>
       </c>
@@ -20429,7 +20628,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>129</v>
       </c>
@@ -20452,7 +20651,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>127</v>
       </c>
@@ -20475,7 +20674,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>23</v>
       </c>
@@ -20498,7 +20697,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>3</v>
       </c>
@@ -20521,7 +20720,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>22</v>
       </c>
@@ -20544,7 +20743,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>4</v>
       </c>
@@ -20567,7 +20766,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1</v>
       </c>
@@ -20590,7 +20789,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>96</v>
       </c>
@@ -20613,12 +20812,12 @@
         <v>530</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F108" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>38</v>
       </c>
@@ -20641,7 +20840,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>24</v>
       </c>
@@ -20664,7 +20863,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>39</v>
       </c>
@@ -20687,7 +20886,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>98</v>
       </c>
@@ -20710,7 +20909,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>12</v>
       </c>
@@ -20733,7 +20932,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>28</v>
       </c>
@@ -20756,7 +20955,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>123</v>
       </c>
@@ -20779,7 +20978,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>31</v>
       </c>
@@ -20802,7 +21001,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>61</v>
       </c>
@@ -20825,7 +21024,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>10</v>
       </c>
@@ -20848,7 +21047,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>70</v>
       </c>
@@ -20871,7 +21070,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>81</v>
       </c>
@@ -20894,7 +21093,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>87</v>
       </c>
@@ -20917,7 +21116,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>82</v>
       </c>
@@ -20940,7 +21139,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>83</v>
       </c>
@@ -20963,7 +21162,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>11</v>
       </c>
@@ -20986,7 +21185,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>43</v>
       </c>
@@ -21009,7 +21208,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>131</v>
       </c>
@@ -21032,7 +21231,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>41</v>
       </c>
@@ -21055,7 +21254,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>69</v>
       </c>
@@ -21078,7 +21277,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>92</v>
       </c>
@@ -21101,7 +21300,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>105</v>
       </c>
@@ -21124,7 +21323,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>106</v>
       </c>
@@ -21147,7 +21346,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>107</v>
       </c>
@@ -21170,7 +21369,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>45</v>
       </c>
@@ -21193,7 +21392,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>49</v>
       </c>
@@ -21216,7 +21415,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>13</v>
       </c>
@@ -21239,7 +21438,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>5</v>
       </c>
@@ -21262,7 +21461,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>100</v>
       </c>
@@ -21285,7 +21484,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>30</v>
       </c>
@@ -21308,7 +21507,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>132</v>
       </c>
@@ -21331,7 +21530,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>68</v>
       </c>
